--- a/Excel reader/Retest/B8-retest.xlsx
+++ b/Excel reader/Retest/B8-retest.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,16 +451,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>dmudit88</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>181b258</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -464,16 +474,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>yashi.tandon2000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>181b249</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -482,16 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>utsav_19_181b231</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>181b231</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -500,16 +520,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181b232</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>vaibhavsinghchauhan54</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>181b234</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -518,16 +543,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>181b240</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
+          <t>trijal1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>181b230</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -536,16 +566,115 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>vj120</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>181b232</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mishravijaya1017</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>181b240</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>suyash289</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>181b226</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>rajiv189</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>181b263</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Disqualified due to Tab switches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ankit.flash11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>181b252</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C11" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
